--- a/data/trans_orig/P1402-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11040</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5735</v>
+        <v>6377</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19340</v>
+        <v>18697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04043647967122534</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02100735071749332</v>
+        <v>0.02335853337718621</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07083923859101944</v>
+        <v>0.06848615243374204</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>10516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5175</v>
+        <v>5571</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18146</v>
+        <v>20026</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04031714689515416</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01983885571645305</v>
+        <v>0.02135811279717545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06956776325045352</v>
+        <v>0.07677461085428852</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -786,19 +786,19 @@
         <v>21556</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13645</v>
+        <v>14466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31557</v>
+        <v>32334</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04037817368954581</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0255596757320234</v>
+        <v>0.02709743913458383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0591127254980668</v>
+        <v>0.06056833679354226</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>261970</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253670</v>
+        <v>254313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267275</v>
+        <v>266633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9595635203287747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9291607614089801</v>
+        <v>0.9315138475662568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9789926492825065</v>
+        <v>0.9766414666228137</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -836,19 +836,19 @@
         <v>250322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>242692</v>
+        <v>240812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>255663</v>
+        <v>255267</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9596828531048458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9304322367495463</v>
+        <v>0.9232253891457116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9801611442835468</v>
+        <v>0.9786418872028245</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>493</v>
@@ -857,19 +857,19 @@
         <v>512292</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>502291</v>
+        <v>501514</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>520203</v>
+        <v>519382</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9596218263104542</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9408872745019343</v>
+        <v>0.939431663206458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9744403242679769</v>
+        <v>0.9729025608654165</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>25710</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16565</v>
+        <v>16713</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37282</v>
+        <v>38147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05214299421855583</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03359536975060429</v>
+        <v>0.0338955422058647</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07561049195198863</v>
+        <v>0.07736525875828204</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -982,19 +982,19 @@
         <v>43645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32346</v>
+        <v>32404</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59612</v>
+        <v>58437</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08660510234280669</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06418489074829828</v>
+        <v>0.06430034022802458</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1182891408018572</v>
+        <v>0.1159586953237955</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -1003,19 +1003,19 @@
         <v>69355</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54777</v>
+        <v>54527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88762</v>
+        <v>85833</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06956197715160976</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05494022821758246</v>
+        <v>0.05468968905602715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08902711421936225</v>
+        <v>0.08608936115744721</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>467365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455793</v>
+        <v>454928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476510</v>
+        <v>476362</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9478570057814442</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9243895080480115</v>
+        <v>0.9226347412417176</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.966404630249396</v>
+        <v>0.9661044577941352</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>456</v>
@@ -1053,19 +1053,19 @@
         <v>460304</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>444337</v>
+        <v>445512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>471603</v>
+        <v>471545</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9133948976571933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8817108591981424</v>
+        <v>0.8840413046762045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9358151092517015</v>
+        <v>0.9356996597719753</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>897</v>
@@ -1074,19 +1074,19 @@
         <v>927669</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>908262</v>
+        <v>911191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>942247</v>
+        <v>942497</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9304380228483903</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9109728857806381</v>
+        <v>0.9139106388425529</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9450597717824177</v>
+        <v>0.9453103109439729</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18106</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11377</v>
+        <v>10748</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27393</v>
+        <v>27164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05678463706143623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03568316070145754</v>
+        <v>0.03370811105201307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08591187091805207</v>
+        <v>0.08519475751066118</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1199,19 +1199,19 @@
         <v>22859</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15117</v>
+        <v>15339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32995</v>
+        <v>34084</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06815200275063116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04506994079467081</v>
+        <v>0.04573260558620904</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09837213935968762</v>
+        <v>0.1016172147553419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1220,19 +1220,19 @@
         <v>40965</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30817</v>
+        <v>30259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>55484</v>
+        <v>53905</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06261223318841093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04710233515972476</v>
+        <v>0.04624969767660026</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08480380553000873</v>
+        <v>0.08239055836345879</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>300740</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291453</v>
+        <v>291682</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307469</v>
+        <v>308098</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9432153629385638</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9140881290819479</v>
+        <v>0.9148052424893388</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9643168392985425</v>
+        <v>0.9662918889479869</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>312</v>
@@ -1270,19 +1270,19 @@
         <v>312553</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>302417</v>
+        <v>301328</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320295</v>
+        <v>320073</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9318479972493688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9016278606403124</v>
+        <v>0.8983827852446581</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9549300592053293</v>
+        <v>0.9542673944137917</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>604</v>
@@ -1291,19 +1291,19 @@
         <v>613293</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>598774</v>
+        <v>600353</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623441</v>
+        <v>623999</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9373877668115891</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9151961944699913</v>
+        <v>0.9176094416365411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9528976648402754</v>
+        <v>0.9537503023233997</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>16479</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10076</v>
+        <v>9809</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25700</v>
+        <v>24805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04594462145054756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02809128251074473</v>
+        <v>0.02734837748067111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07165395655167545</v>
+        <v>0.06915836875088228</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>20246</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12611</v>
+        <v>13069</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29777</v>
+        <v>29632</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05450441877101057</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03395127606346893</v>
+        <v>0.0351821722482558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08016370451456728</v>
+        <v>0.07977163954270745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1437,19 +1437,19 @@
         <v>36725</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26428</v>
+        <v>26381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48023</v>
+        <v>48227</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05029946305852007</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03619659305395699</v>
+        <v>0.036132537468627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06577338572810444</v>
+        <v>0.06605222066469925</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>342192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>332971</v>
+        <v>333866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348595</v>
+        <v>348862</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9540553785494524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9283460434483244</v>
+        <v>0.9308416312491176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9719087174892553</v>
+        <v>0.9726516225193288</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -1487,19 +1487,19 @@
         <v>351210</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>341679</v>
+        <v>341824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>358845</v>
+        <v>358387</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9454955812289895</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9198362954854331</v>
+        <v>0.9202283604572928</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9660487239365314</v>
+        <v>0.9648178277517442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>706</v>
@@ -1508,19 +1508,19 @@
         <v>693402</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>682104</v>
+        <v>681900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>703699</v>
+        <v>703746</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9497005369414799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9342266142718957</v>
+        <v>0.9339477793353008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9638034069460433</v>
+        <v>0.963867462531373</v>
       </c>
     </row>
     <row r="15">
@@ -1615,16 +1615,16 @@
         <v>6177</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18159</v>
+        <v>18651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05594580928108314</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03038248990503969</v>
+        <v>0.03038007265550592</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0893167544254001</v>
+        <v>0.09173975083656405</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1633,19 +1633,19 @@
         <v>19959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12200</v>
+        <v>12938</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30218</v>
+        <v>31126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09611076986161926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05874722459170852</v>
+        <v>0.06229911732110652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1455122931822729</v>
+        <v>0.1498844378624801</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1654,19 +1654,19 @@
         <v>31333</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21869</v>
+        <v>21771</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45637</v>
+        <v>42834</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07624134016436766</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05321302706069659</v>
+        <v>0.05297463673247351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1110464047271859</v>
+        <v>0.104225003996077</v>
       </c>
     </row>
     <row r="17">
@@ -1683,7 +1683,7 @@
         <v>191934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185149</v>
+        <v>184657</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>197131</v>
@@ -1692,10 +1692,10 @@
         <v>0.9440541907189168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9106832455746</v>
+        <v>0.908260249163436</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9696175100949603</v>
+        <v>0.9696199273444941</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -1704,19 +1704,19 @@
         <v>187709</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177450</v>
+        <v>176542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195468</v>
+        <v>194730</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9038892301383807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8544877068177276</v>
+        <v>0.8501155621375199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9412527754082916</v>
+        <v>0.9377008826788936</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>373</v>
@@ -1725,19 +1725,19 @@
         <v>379643</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365339</v>
+        <v>368142</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>389107</v>
+        <v>389205</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9237586598356323</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8889535952728144</v>
+        <v>0.895774996003923</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9467869729393035</v>
+        <v>0.9470253632675265</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>13562</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7875</v>
+        <v>7585</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22958</v>
+        <v>21346</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05007994855906308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02907780634230447</v>
+        <v>0.02800990739839684</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08477620408786167</v>
+        <v>0.07882399671611773</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1850,19 +1850,19 @@
         <v>11713</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6231</v>
+        <v>6118</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19913</v>
+        <v>20331</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04210990768842553</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02240345563009214</v>
+        <v>0.02199596921894727</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07159110614254621</v>
+        <v>0.07309551042281916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1871,19 +1871,19 @@
         <v>25275</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17212</v>
+        <v>16705</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36602</v>
+        <v>35949</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04604169582107982</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03135469422903941</v>
+        <v>0.03043076635120967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0666756747079179</v>
+        <v>0.06548632190961821</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>257249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247853</v>
+        <v>249465</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262936</v>
+        <v>263226</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9499200514409369</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9152237959121383</v>
+        <v>0.9211760032838823</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9709221936576955</v>
+        <v>0.9719900926016032</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -1921,19 +1921,19 @@
         <v>266431</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>258231</v>
+        <v>257813</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271913</v>
+        <v>272026</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9578900923115745</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.928408893857454</v>
+        <v>0.926904489577181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9775965443699082</v>
+        <v>0.9780040307810529</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -1942,19 +1942,19 @@
         <v>523680</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>512353</v>
+        <v>513006</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531743</v>
+        <v>532250</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9539583041789201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9333243252920816</v>
+        <v>0.934513678090382</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9686453057709604</v>
+        <v>0.9695692336487904</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>39605</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28441</v>
+        <v>29433</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52701</v>
+        <v>52941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06439592518119787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04624416567090699</v>
+        <v>0.04785567161826654</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08568843796694361</v>
+        <v>0.08607908857961398</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -2067,19 +2067,19 @@
         <v>48678</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35779</v>
+        <v>36735</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62776</v>
+        <v>61462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07627153858597431</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05606026819673156</v>
+        <v>0.05755878097307446</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0983604849839525</v>
+        <v>0.09630196611325488</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -2088,19 +2088,19 @@
         <v>88283</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71812</v>
+        <v>72831</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>108585</v>
+        <v>108591</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07044361439106725</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05730043404127334</v>
+        <v>0.05811422245906288</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08664261427524032</v>
+        <v>0.08664796439142564</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>575422</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>562326</v>
+        <v>562086</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>586586</v>
+        <v>585594</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9356040748188021</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9143115620330565</v>
+        <v>0.9139209114203861</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9537558343290931</v>
+        <v>0.9521443283817335</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>571</v>
@@ -2138,19 +2138,19 @@
         <v>589541</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>575443</v>
+        <v>576757</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>602440</v>
+        <v>601484</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9237284614140256</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9016395150160474</v>
+        <v>0.9036980338867452</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9439397318032684</v>
+        <v>0.9424412190269255</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1128</v>
@@ -2159,19 +2159,19 @@
         <v>1164963</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1144661</v>
+        <v>1144655</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1181434</v>
+        <v>1180415</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9295563856089327</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9133573857247599</v>
+        <v>0.9133520356085744</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9426995659587269</v>
+        <v>0.9418857775409369</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>49591</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37586</v>
+        <v>37322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63963</v>
+        <v>63935</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06667257376913736</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05053305243796396</v>
+        <v>0.05017802755513708</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08599521240224017</v>
+        <v>0.08595735077429134</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2284,19 +2284,19 @@
         <v>51633</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38542</v>
+        <v>38200</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67535</v>
+        <v>66916</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06589979129498429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04919168153912187</v>
+        <v>0.04875541260562942</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08619538488883645</v>
+        <v>0.08540511172358919</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>98</v>
@@ -2305,19 +2305,19 @@
         <v>101224</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83893</v>
+        <v>82753</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>124171</v>
+        <v>122276</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0662761348416977</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05492873888795323</v>
+        <v>0.05418246366246009</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08130043320647516</v>
+        <v>0.08005983518088333</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>694204</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>679832</v>
+        <v>679860</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>706209</v>
+        <v>706473</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9333274262308626</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9140047875977598</v>
+        <v>0.9140426492257087</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9494669475620361</v>
+        <v>0.9498219724448629</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>698</v>
@@ -2355,19 +2355,19 @@
         <v>731878</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>715976</v>
+        <v>716595</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>744969</v>
+        <v>745311</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9341002087050158</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9138046151111633</v>
+        <v>0.914594888276411</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9508083184608781</v>
+        <v>0.9512445873943708</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1383</v>
@@ -2376,19 +2376,19 @@
         <v>1426082</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1403135</v>
+        <v>1405030</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1443413</v>
+        <v>1444553</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9337238651583023</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9186995667935248</v>
+        <v>0.9199401648191166</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9450712611120468</v>
+        <v>0.94581753633754</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>185467</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>160697</v>
+        <v>160050</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>210098</v>
+        <v>211445</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05660445092362176</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>224</v>
@@ -2501,19 +2501,19 @@
         <v>229249</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>199109</v>
+        <v>203055</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>258916</v>
+        <v>260389</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06784117436893325</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>416</v>
@@ -2522,19 +2522,19 @@
         <v>414716</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>377736</v>
+        <v>378505</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>456861</v>
+        <v>454309</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06230946674902334</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3091076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3066445</v>
+        <v>3065098</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3115846</v>
+        <v>3116493</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9433955490763782</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9358781712954611</v>
+        <v>0.9354670484225888</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.95095521330934</v>
+        <v>0.9511526652231349</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3073</v>
@@ -2572,19 +2572,19 @@
         <v>3149948</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3120281</v>
+        <v>3118808</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3180088</v>
+        <v>3176142</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9321588256310668</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9233793101475445</v>
+        <v>0.9229436018354911</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9410780048526205</v>
+        <v>0.9399103672749645</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6095</v>
@@ -2593,19 +2593,19 @@
         <v>6241025</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6198880</v>
+        <v>6201432</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6278005</v>
+        <v>6277236</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9376905332509766</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9313583506885944</v>
+        <v>0.9317417759123237</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9432465757485009</v>
+        <v>0.9431310117936085</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>21169</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13613</v>
+        <v>13200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32952</v>
+        <v>31639</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07182474823537992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04618778643317051</v>
+        <v>0.04478659663045784</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.111801205064388</v>
+        <v>0.1073455016890424</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2962,19 +2962,19 @@
         <v>18438</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11484</v>
+        <v>11451</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28799</v>
+        <v>28718</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06418827316566368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03997969323191133</v>
+        <v>0.03986373514775481</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1002577254117905</v>
+        <v>0.09997574702630432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -2983,19 +2983,19 @@
         <v>39607</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26987</v>
+        <v>27809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53640</v>
+        <v>54461</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06805567050189705</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04637046034130846</v>
+        <v>0.0477834607119851</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09216767323991737</v>
+        <v>0.093578832288039</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>273569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261786</v>
+        <v>263099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281125</v>
+        <v>281538</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9281752517646201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8881987949356126</v>
+        <v>0.8926544983109579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9538122135668297</v>
+        <v>0.9552134033695422</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -3033,19 +3033,19 @@
         <v>268807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258446</v>
+        <v>258527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>275761</v>
+        <v>275794</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9358117268343363</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8997422745882094</v>
+        <v>0.9000242529736958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9600203067680886</v>
+        <v>0.9601362648522452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>501</v>
@@ -3054,19 +3054,19 @@
         <v>542376</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>528343</v>
+        <v>527522</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>554996</v>
+        <v>554174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9319443294981029</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9078323267600824</v>
+        <v>0.9064211677119612</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9536295396586915</v>
+        <v>0.952216539288015</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>35916</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24632</v>
+        <v>25621</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49438</v>
+        <v>49883</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07104631875122334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04872569207172787</v>
+        <v>0.05068175831378625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09779510810775775</v>
+        <v>0.09867444504555356</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3179,19 +3179,19 @@
         <v>57653</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43497</v>
+        <v>44900</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73743</v>
+        <v>74644</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.110075081610321</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08304614621117086</v>
+        <v>0.0857253134236212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.140793690625758</v>
+        <v>0.1425135180569292</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -3200,19 +3200,19 @@
         <v>93569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>74442</v>
+        <v>75218</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112352</v>
+        <v>115270</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09090647015603076</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07232369002905971</v>
+        <v>0.07307782002500737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1091546314599997</v>
+        <v>0.111989877545587</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>469611</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>456089</v>
+        <v>455644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480895</v>
+        <v>479906</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9289536812487766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9022048918922424</v>
+        <v>0.9013255549544469</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9512743079282723</v>
+        <v>0.949318241686214</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>426</v>
@@ -3250,19 +3250,19 @@
         <v>466112</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>450022</v>
+        <v>449121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>480268</v>
+        <v>478865</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.889924918389679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8592063093742425</v>
+        <v>0.8574864819430712</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9169538537888293</v>
+        <v>0.914274686576379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>866</v>
@@ -3271,19 +3271,19 @@
         <v>935723</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>916940</v>
+        <v>914022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>954850</v>
+        <v>954074</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9090935298439693</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8908453685400003</v>
+        <v>0.888010122454413</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9276763099709402</v>
+        <v>0.9269221799749925</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>32415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22261</v>
+        <v>22866</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44145</v>
+        <v>45438</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1000317878883058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06869685346395306</v>
+        <v>0.07056321244761048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1362311129472883</v>
+        <v>0.1402220457309115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3396,19 +3396,19 @@
         <v>35128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24513</v>
+        <v>24726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47579</v>
+        <v>48365</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1030075436154849</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07188028127862368</v>
+        <v>0.07250501641430443</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1395208217845901</v>
+        <v>0.1418231193937496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -3417,19 +3417,19 @@
         <v>67543</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53591</v>
+        <v>53356</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85199</v>
+        <v>86395</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1015576398018392</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08058013699068114</v>
+        <v>0.08022619605312713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.128105354186982</v>
+        <v>0.1299040213730189</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>291631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>279901</v>
+        <v>278608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301785</v>
+        <v>301180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8999682121116942</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8637688870527119</v>
+        <v>0.8597779542690884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9313031465360477</v>
+        <v>0.9294367875523892</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>285</v>
@@ -3467,19 +3467,19 @@
         <v>305892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293441</v>
+        <v>292655</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316507</v>
+        <v>316294</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8969924563845151</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8604791782154088</v>
+        <v>0.85817688060625</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9281197187213762</v>
+        <v>0.9274949835856954</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>574</v>
@@ -3488,19 +3488,19 @@
         <v>597523</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>579867</v>
+        <v>578671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>611475</v>
+        <v>611710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8984423601981608</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8718946458130181</v>
+        <v>0.8700959786269811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9194198630093189</v>
+        <v>0.9197738039468729</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>23405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14628</v>
+        <v>15628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33970</v>
+        <v>33610</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06258439045951467</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03911518174107373</v>
+        <v>0.04178699673541238</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09083312787999019</v>
+        <v>0.08986949296844958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -3613,19 +3613,19 @@
         <v>32877</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23461</v>
+        <v>22976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46194</v>
+        <v>45604</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08452750706177781</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06031927897360844</v>
+        <v>0.05907199262037163</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1187663348449972</v>
+        <v>0.1172498392398484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -3634,19 +3634,19 @@
         <v>56282</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43166</v>
+        <v>43850</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74479</v>
+        <v>72674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07377121265186075</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0565787598117261</v>
+        <v>0.05747619112690679</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09762230208091724</v>
+        <v>0.09525587917598993</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>350577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340012</v>
+        <v>340372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359354</v>
+        <v>358354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9374156095404853</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9091668721200098</v>
+        <v>0.9101305070315502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9608848182589264</v>
+        <v>0.9582130032645876</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>339</v>
@@ -3684,19 +3684,19 @@
         <v>356074</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342757</v>
+        <v>343347</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>365490</v>
+        <v>365975</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9154724929382222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8812336651550025</v>
+        <v>0.882750160760152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9396807210263912</v>
+        <v>0.9409280073796286</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>661</v>
@@ -3705,19 +3705,19 @@
         <v>706651</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>688454</v>
+        <v>690259</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>719767</v>
+        <v>719083</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9262287873481393</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9023776979190828</v>
+        <v>0.9047441208240101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.943421240188274</v>
+        <v>0.9425238088730933</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>19957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11633</v>
+        <v>12291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29232</v>
+        <v>29852</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09386204243447312</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05471272750454261</v>
+        <v>0.05780613541202125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1374853524110579</v>
+        <v>0.1404042073697805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -3830,19 +3830,19 @@
         <v>27957</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18897</v>
+        <v>19527</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39455</v>
+        <v>38850</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.127314867104663</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08605630312160358</v>
+        <v>0.08892265645202907</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1796730862746962</v>
+        <v>0.1769203624108918</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -3851,19 +3851,19 @@
         <v>47914</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35079</v>
+        <v>35924</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61949</v>
+        <v>60720</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1108583070959706</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0811628781886591</v>
+        <v>0.08311687705235893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.143330858504911</v>
+        <v>0.1404865952793159</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>192661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183386</v>
+        <v>182766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200985</v>
+        <v>200327</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9061379575655268</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8625146475889416</v>
+        <v>0.8595957926302195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9452872724954573</v>
+        <v>0.9421938645879788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>185</v>
@@ -3901,19 +3901,19 @@
         <v>191634</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180136</v>
+        <v>180741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>200694</v>
+        <v>200064</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.872685132895337</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8203269137253039</v>
+        <v>0.8230796375891082</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9139436968783965</v>
+        <v>0.911077343547971</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>363</v>
@@ -3922,19 +3922,19 @@
         <v>384295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>370260</v>
+        <v>371489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>397130</v>
+        <v>396285</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8891416929040293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.856669141495089</v>
+        <v>0.859513404720684</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9188371218113408</v>
+        <v>0.916883122947641</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>20425</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13238</v>
+        <v>12990</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30218</v>
+        <v>30934</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07455029735654822</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04831773544826233</v>
+        <v>0.0474132382264424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1102925679869757</v>
+        <v>0.1129041333175111</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -4047,19 +4047,19 @@
         <v>28451</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19053</v>
+        <v>19681</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38933</v>
+        <v>42275</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1023058003312835</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06851078453176009</v>
+        <v>0.07077135706818642</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1399998125029328</v>
+        <v>0.1520166863279716</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -4068,19 +4068,19 @@
         <v>48876</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36023</v>
+        <v>36390</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62675</v>
+        <v>64927</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08853148268224018</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06525063952351823</v>
+        <v>0.06591499535300857</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1135264121538933</v>
+        <v>0.1176048787387924</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>253556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243763</v>
+        <v>243047</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260743</v>
+        <v>260991</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9254497026434518</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8897074320130242</v>
+        <v>0.8870958666824889</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9516822645517375</v>
+        <v>0.9525867617735576</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>241</v>
@@ -4118,19 +4118,19 @@
         <v>249645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>239163</v>
+        <v>235821</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>259043</v>
+        <v>258415</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8976941996687166</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8600001874970672</v>
+        <v>0.8479833136720284</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9314892154682399</v>
+        <v>0.9292286429318136</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>482</v>
@@ -4139,19 +4139,19 @@
         <v>503201</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>489402</v>
+        <v>487150</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>516054</v>
+        <v>515687</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9114685173177598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8864735878461066</v>
+        <v>0.8823951212612077</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9347493604764817</v>
+        <v>0.9340850046469913</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>54454</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41272</v>
+        <v>39941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71071</v>
+        <v>71023</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08215885603343694</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06227103575115847</v>
+        <v>0.06026285806119333</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1072297738869148</v>
+        <v>0.1071578815726037</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -4264,19 +4264,19 @@
         <v>58241</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44990</v>
+        <v>45018</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74593</v>
+        <v>76911</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0839379733954016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06484138182692167</v>
+        <v>0.06488133674663611</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1075058949485501</v>
+        <v>0.1108467183900093</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -4285,19 +4285,19 @@
         <v>112695</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93849</v>
+        <v>92461</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136386</v>
+        <v>136226</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08306878419998169</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06917713951905548</v>
+        <v>0.06815401293350426</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1005318264488266</v>
+        <v>0.100414244109067</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>608334</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>591717</v>
+        <v>591765</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>621516</v>
+        <v>622847</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.917841143966563</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8927702261130853</v>
+        <v>0.8928421184273978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9377289642488419</v>
+        <v>0.939737141938807</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>581</v>
@@ -4335,19 +4335,19 @@
         <v>635612</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>619260</v>
+        <v>616942</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>648863</v>
+        <v>648835</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9160620266045983</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8924941050514499</v>
+        <v>0.8891532816099906</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9351586181730782</v>
+        <v>0.9351186632533639</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1148</v>
@@ -4356,19 +4356,19 @@
         <v>1243946</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1220255</v>
+        <v>1220415</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1262792</v>
+        <v>1264180</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9169312158000184</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8994681735511734</v>
+        <v>0.8995857558909331</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9308228604809445</v>
+        <v>0.9318459870664958</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>49384</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36147</v>
+        <v>36829</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64137</v>
+        <v>67208</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06338672097457115</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04639658419808031</v>
+        <v>0.04727117641424191</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08232270534597144</v>
+        <v>0.08626356380117713</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -4481,19 +4481,19 @@
         <v>48458</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35801</v>
+        <v>35444</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63239</v>
+        <v>63811</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05891041611752189</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04352294298009323</v>
+        <v>0.04308839031246486</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07687865394729175</v>
+        <v>0.07757390307640351</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -4502,19 +4502,19 @@
         <v>97843</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79408</v>
+        <v>78858</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121405</v>
+        <v>119231</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06108781132493157</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04957825823540964</v>
+        <v>0.0492347129472866</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07579888397515212</v>
+        <v>0.07444124573642813</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>729714</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>714961</v>
+        <v>711890</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>742951</v>
+        <v>742269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9366132790254289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9176772946540284</v>
+        <v>0.9137364361988225</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9536034158019195</v>
+        <v>0.9527288235857574</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>711</v>
@@ -4552,19 +4552,19 @@
         <v>774120</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>759339</v>
+        <v>758767</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>786777</v>
+        <v>787134</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9410895838824781</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9231213460527081</v>
+        <v>0.9224260969235965</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9564770570199067</v>
+        <v>0.956911609687535</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1384</v>
@@ -4573,19 +4573,19 @@
         <v>1503833</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1480271</v>
+        <v>1482445</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1522268</v>
+        <v>1522818</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9389121886750684</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9242011160248486</v>
+        <v>0.9255587542635717</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9504217417645904</v>
+        <v>0.9507652870527135</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>257126</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>228588</v>
+        <v>225919</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>292571</v>
+        <v>290927</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07503437428869794</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06670623868613132</v>
+        <v>0.06592744942144681</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08537780398129409</v>
+        <v>0.08489795656720989</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>290</v>
@@ -4698,19 +4698,19 @@
         <v>307203</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>275145</v>
+        <v>275961</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>340459</v>
+        <v>343372</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08641193782767491</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07739449854276674</v>
+        <v>0.07762392035832197</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09576642422627944</v>
+        <v>0.09658572317982968</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>526</v>
@@ -4719,19 +4719,19 @@
         <v>564329</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>520243</v>
+        <v>522130</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>611249</v>
+        <v>612257</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08082770989948908</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0745134140554085</v>
+        <v>0.07478362567588512</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08754794318881222</v>
+        <v>0.08769236859867235</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3169653</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3134208</v>
+        <v>3135852</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3198191</v>
+        <v>3200860</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.924965625711302</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.914622196018706</v>
+        <v>0.9151020434327901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9332937613138688</v>
+        <v>0.9340725505785532</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3006</v>
@@ -4769,19 +4769,19 @@
         <v>3247895</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3214639</v>
+        <v>3211726</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3279953</v>
+        <v>3279137</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9135880621723251</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9042335757737204</v>
+        <v>0.9034142768201703</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9226055014572332</v>
+        <v>0.9223760796416777</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5979</v>
@@ -4790,19 +4790,19 @@
         <v>6417548</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6370628</v>
+        <v>6369620</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6461634</v>
+        <v>6459747</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9191722901005109</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9124520568111877</v>
+        <v>0.9123076314013276</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9254865859445913</v>
+        <v>0.925216374324115</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>21184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13177</v>
+        <v>13692</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31232</v>
+        <v>32052</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07211347267031373</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04485582422357637</v>
+        <v>0.04661072294269873</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1063168601385174</v>
+        <v>0.1091089824033167</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -5159,19 +5159,19 @@
         <v>15406</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8725</v>
+        <v>8620</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24747</v>
+        <v>24060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05336365064690995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03022162641152921</v>
+        <v>0.02985908549767679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08571909684714715</v>
+        <v>0.08333908881623231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -5180,19 +5180,19 @@
         <v>36590</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25980</v>
+        <v>26244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49802</v>
+        <v>50572</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06281997151222146</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04460440298468843</v>
+        <v>0.04505678461928454</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08550212676248486</v>
+        <v>0.08682365810185266</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>272577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262529</v>
+        <v>261709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>280584</v>
+        <v>280069</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9278865273296862</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8936831398614825</v>
+        <v>0.8908910175966832</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9551441757764234</v>
+        <v>0.9533892770573011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>263</v>
@@ -5230,19 +5230,19 @@
         <v>273297</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263956</v>
+        <v>264643</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279978</v>
+        <v>280083</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.94663634935309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9142809031528529</v>
+        <v>0.9166609111837678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9697783735884709</v>
+        <v>0.9701409145023232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>509</v>
@@ -5251,19 +5251,19 @@
         <v>545874</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>532662</v>
+        <v>531892</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>556484</v>
+        <v>556220</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9371800284877786</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.914497873237515</v>
+        <v>0.9131763418981474</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9553955970153115</v>
+        <v>0.9549432153807155</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>38432</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27344</v>
+        <v>27589</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51189</v>
+        <v>51610</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07646925177891743</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05440752700889639</v>
+        <v>0.05489457932223139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1018526767144083</v>
+        <v>0.1026917313553485</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -5376,19 +5376,19 @@
         <v>56334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44056</v>
+        <v>42605</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71728</v>
+        <v>71906</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1076956644978689</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08422437974357745</v>
+        <v>0.08144987829726567</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1371246253209838</v>
+        <v>0.1374657566361375</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -5397,19 +5397,19 @@
         <v>94765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77424</v>
+        <v>78018</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114402</v>
+        <v>114699</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09239465302144359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07548674255973632</v>
+        <v>0.07606654672897825</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1115395752935996</v>
+        <v>0.1118299947784208</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>464143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>451386</v>
+        <v>450965</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475231</v>
+        <v>474986</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9235307482210826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8981473232855915</v>
+        <v>0.8973082686446513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9455924729911036</v>
+        <v>0.9451054206777686</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -5447,19 +5447,19 @@
         <v>466750</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451356</v>
+        <v>451178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>479028</v>
+        <v>480479</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8923043355021311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.862875374679016</v>
+        <v>0.8625342433638622</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9157756202564226</v>
+        <v>0.9185501217027342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>872</v>
@@ -5468,19 +5468,19 @@
         <v>930894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>911257</v>
+        <v>910960</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>948235</v>
+        <v>947641</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9076053469785564</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8884604247064004</v>
+        <v>0.8881700052215791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9245132574402637</v>
+        <v>0.9239334532710217</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>14513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8560</v>
+        <v>8986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22257</v>
+        <v>22971</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0455582054878944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02686919026031889</v>
+        <v>0.02820773633450523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0698667198093287</v>
+        <v>0.07210665423417342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -5593,19 +5593,19 @@
         <v>24522</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15641</v>
+        <v>16382</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35988</v>
+        <v>35223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07291461134131308</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0465083500852296</v>
+        <v>0.04871041347155967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1070082228224301</v>
+        <v>0.1047325925349139</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -5614,19 +5614,19 @@
         <v>39035</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27445</v>
+        <v>28809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50643</v>
+        <v>52892</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05960702336187398</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04190837153971437</v>
+        <v>0.04399101437483301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07733186694314235</v>
+        <v>0.08076683314539115</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>304052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296308</v>
+        <v>295594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310005</v>
+        <v>309579</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9544417945121056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9301332801906713</v>
+        <v>0.9278933457658266</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9731308097396811</v>
+        <v>0.9717922636654948</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -5664,19 +5664,19 @@
         <v>311787</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>300321</v>
+        <v>301086</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320668</v>
+        <v>319927</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9270853886586869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8929917771775708</v>
+        <v>0.8952674074650896</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9534916499147704</v>
+        <v>0.9512895865284404</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -5685,19 +5685,19 @@
         <v>615839</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604231</v>
+        <v>601982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>627429</v>
+        <v>626065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.940392976638126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9226681330568577</v>
+        <v>0.9192331668546093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9580916284602859</v>
+        <v>0.9560089856251671</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>44503</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32611</v>
+        <v>33150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58416</v>
+        <v>57340</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1202888684250468</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08814586899319038</v>
+        <v>0.0896044735606356</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1578966873288138</v>
+        <v>0.1549880132323196</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5810,19 +5810,19 @@
         <v>26270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17417</v>
+        <v>16825</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37303</v>
+        <v>37669</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06783269130385304</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04497110203828854</v>
+        <v>0.04344247945989676</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09632098166322954</v>
+        <v>0.09726443154042327</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -5831,19 +5831,19 @@
         <v>70773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55091</v>
+        <v>56508</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87949</v>
+        <v>87589</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09346091702403266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07275178851826854</v>
+        <v>0.07462308592832834</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1161428436251966</v>
+        <v>0.115667130007535</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>325461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311548</v>
+        <v>312624</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>337353</v>
+        <v>336814</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8797111315749532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8421033126711862</v>
+        <v>0.8450119867676802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9118541310068097</v>
+        <v>0.9103955264393642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>334</v>
@@ -5881,19 +5881,19 @@
         <v>361013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>349980</v>
+        <v>349614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369866</v>
+        <v>370458</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9321673086961469</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9036790183367706</v>
+        <v>0.9027355684595766</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9550288979617115</v>
+        <v>0.9565575205401031</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>642</v>
@@ -5902,19 +5902,19 @@
         <v>686474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>669298</v>
+        <v>669658</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>702156</v>
+        <v>700739</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9065390829759673</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8838571563748034</v>
+        <v>0.8843328699924651</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9272482114817316</v>
+        <v>0.9253769140716717</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>13041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7873</v>
+        <v>7298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21518</v>
+        <v>20979</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06173994105801985</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0372724956115619</v>
+        <v>0.03455066486941842</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.101874805055864</v>
+        <v>0.0993240422456461</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -6027,19 +6027,19 @@
         <v>19600</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12354</v>
+        <v>11847</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29773</v>
+        <v>29635</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0896656562860025</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05651769086007775</v>
+        <v>0.05419856219412435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1362058748156949</v>
+        <v>0.1355734759179164</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -6048,19 +6048,19 @@
         <v>32641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23719</v>
+        <v>23141</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46408</v>
+        <v>45488</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07594209257513489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05518448109528849</v>
+        <v>0.05383981404210591</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1079736005540802</v>
+        <v>0.1058326628581508</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>198180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189703</v>
+        <v>190242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203348</v>
+        <v>203923</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9382600589419802</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8981251949441359</v>
+        <v>0.9006759577543535</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9627275043884377</v>
+        <v>0.9654493351305815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -6098,19 +6098,19 @@
         <v>198987</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188814</v>
+        <v>188952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206233</v>
+        <v>206740</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9103343437139975</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8637941251843051</v>
+        <v>0.8644265240820834</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9434823091399223</v>
+        <v>0.9458014378058756</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>402</v>
@@ -6119,19 +6119,19 @@
         <v>397167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>383400</v>
+        <v>384320</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>406089</v>
+        <v>406667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9240579074248652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8920263994459197</v>
+        <v>0.8941673371418493</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9448155189047115</v>
+        <v>0.946160185957894</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>18203</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11592</v>
+        <v>11231</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26992</v>
+        <v>27729</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06918234228958621</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0440571846631239</v>
+        <v>0.04268371740934491</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1025831122179705</v>
+        <v>0.1053828084182365</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -6244,19 +6244,19 @@
         <v>19379</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11838</v>
+        <v>12216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29770</v>
+        <v>31026</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07095375867765209</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04334437199383523</v>
+        <v>0.04472700178813339</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1090026037315977</v>
+        <v>0.1135991071868014</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -6265,7 +6265,7 @@
         <v>37582</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26227</v>
+        <v>27310</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>50142</v>
@@ -6274,10 +6274,10 @@
         <v>0.07008455434457683</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04890917203173935</v>
+        <v>0.05092932808879613</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09350699594018172</v>
+        <v>0.09350687126773358</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>244920</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>236131</v>
+        <v>235394</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251531</v>
+        <v>251892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9308176577104138</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8974168877820294</v>
+        <v>0.8946171915817634</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9559428153368761</v>
+        <v>0.957316282590655</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -6315,19 +6315,19 @@
         <v>253736</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>243345</v>
+        <v>242089</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>261277</v>
+        <v>260899</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9290462413223479</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8909973962684022</v>
+        <v>0.8864008928131992</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9566556280061647</v>
+        <v>0.9552729982118666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>485</v>
@@ -6339,16 +6339,16 @@
         <v>486096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>510011</v>
+        <v>508928</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9299154456554232</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9064930040598183</v>
+        <v>0.9064931287322664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9510908279682606</v>
+        <v>0.9490706719112038</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>74272</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58199</v>
+        <v>60296</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91346</v>
+        <v>94181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.113123885217327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08864297037809848</v>
+        <v>0.09183648428371897</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1391293128347932</v>
+        <v>0.1434463226377393</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -6461,19 +6461,19 @@
         <v>60780</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44028</v>
+        <v>45384</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78499</v>
+        <v>78482</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08792268835954584</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06368922743547152</v>
+        <v>0.06565137070492211</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1135537766901039</v>
+        <v>0.1135293586664757</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -6482,19 +6482,19 @@
         <v>135053</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>114142</v>
+        <v>112408</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>159198</v>
+        <v>159429</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1001985520025331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08468473188436475</v>
+        <v>0.08339814746105868</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1181121375096224</v>
+        <v>0.1182836328388793</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>582286</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>565212</v>
+        <v>562377</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>598359</v>
+        <v>596262</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.886876114782673</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8608706871652068</v>
+        <v>0.8565536773622606</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9113570296219016</v>
+        <v>0.908163515716281</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>596</v>
@@ -6532,19 +6532,19 @@
         <v>630514</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>612795</v>
+        <v>612812</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>647266</v>
+        <v>645910</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9120773116404541</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8864462233098961</v>
+        <v>0.8864706413335243</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9363107725645284</v>
+        <v>0.9343486292950779</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1109</v>
@@ -6553,19 +6553,19 @@
         <v>1212799</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1188654</v>
+        <v>1188423</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1233710</v>
+        <v>1235444</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8998014479974669</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.881887862490377</v>
+        <v>0.8817163671611209</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9153152681156351</v>
+        <v>0.9166018525389413</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>73568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57805</v>
+        <v>59124</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>91413</v>
+        <v>91995</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0944893347844242</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07424415552833878</v>
+        <v>0.07593741740082301</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1174092081671632</v>
+        <v>0.1181573006517102</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>62</v>
@@ -6678,19 +6678,19 @@
         <v>74888</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56462</v>
+        <v>57735</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92659</v>
+        <v>95317</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0906448892721131</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06834218365303435</v>
+        <v>0.06988285381641555</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1121555801512021</v>
+        <v>0.1153727441913889</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -6699,19 +6699,19 @@
         <v>148456</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125402</v>
+        <v>125346</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>174404</v>
+        <v>172837</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0925101143291296</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07814416509219145</v>
+        <v>0.07810956573127698</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1086797126009397</v>
+        <v>0.1077035019267117</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>705015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>687170</v>
+        <v>686588</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>720778</v>
+        <v>719459</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9055106652155758</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.882590791832837</v>
+        <v>0.8818426993482898</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9257558444716613</v>
+        <v>0.9240625825991771</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>693</v>
@@ -6749,19 +6749,19 @@
         <v>751279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>733508</v>
+        <v>730850</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>769705</v>
+        <v>768432</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9093551107278869</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8878444198487977</v>
+        <v>0.8846272558086111</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9316578163469655</v>
+        <v>0.9301171461835844</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1367</v>
@@ -6770,19 +6770,19 @@
         <v>1456294</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1430346</v>
+        <v>1431913</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1479348</v>
+        <v>1479404</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9074898856708704</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.89132028739906</v>
+        <v>0.8922964980732883</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.921855834907808</v>
+        <v>0.9218904342687229</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>297716</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>267232</v>
+        <v>261615</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>330032</v>
+        <v>328637</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08770924501005262</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07872848379117263</v>
+        <v>0.07707380203792968</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09722985943549743</v>
+        <v>0.09681875621243795</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>257</v>
@@ -6895,19 +6895,19 @@
         <v>297179</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>260278</v>
+        <v>263414</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>332822</v>
+        <v>333959</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08384128023455691</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07343076164983572</v>
+        <v>0.07431539782587862</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09389707057033511</v>
+        <v>0.09421769906479904</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>555</v>
@@ -6916,19 +6916,19 @@
         <v>594895</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>547519</v>
+        <v>545158</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>642923</v>
+        <v>645905</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08573340175995259</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07890582724480741</v>
+        <v>0.07856558171309563</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0926550157400312</v>
+        <v>0.09308475615842204</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3096634</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3064318</v>
+        <v>3065713</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3127118</v>
+        <v>3132735</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9122907549899474</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9027701405645026</v>
+        <v>0.9031812437875621</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9212715162088274</v>
+        <v>0.9229261979620703</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3081</v>
@@ -6966,19 +6966,19 @@
         <v>3247363</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3211720</v>
+        <v>3210583</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3284264</v>
+        <v>3281128</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9161587197654431</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9061029294296649</v>
+        <v>0.905782300935201</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9265692383501641</v>
+        <v>0.9256846021741209</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6014</v>
@@ -6987,19 +6987,19 @@
         <v>6343997</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6295969</v>
+        <v>6292987</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6391373</v>
+        <v>6393734</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9142665982400474</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9073449842599689</v>
+        <v>0.906915243841578</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9210941727551927</v>
+        <v>0.9214344182869044</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>35242</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26338</v>
+        <v>27187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47034</v>
+        <v>46944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1105310448421062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08260414797295824</v>
+        <v>0.08526721260194881</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1475147392431051</v>
+        <v>0.1472312674961106</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -7356,19 +7356,19 @@
         <v>24735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18163</v>
+        <v>18501</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32107</v>
+        <v>32047</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07826050830923188</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05746784712265705</v>
+        <v>0.05853464767392277</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1015846310857583</v>
+        <v>0.1013946503976609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -7377,19 +7377,19 @@
         <v>59977</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49232</v>
+        <v>49013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>72411</v>
+        <v>73073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09446654435617899</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07754275513547247</v>
+        <v>0.07719754821635713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1140496662008267</v>
+        <v>0.1150926471807246</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>283603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271811</v>
+        <v>271901</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292507</v>
+        <v>291658</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8894689551578937</v>
+        <v>0.889468955157894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8524852607568951</v>
+        <v>0.8527687325038894</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9173958520270423</v>
+        <v>0.914732787398051</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>488</v>
@@ -7427,19 +7427,19 @@
         <v>291326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283954</v>
+        <v>284014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>297898</v>
+        <v>297560</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9217394916907681</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8984153689142415</v>
+        <v>0.898605349602339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9425321528773427</v>
+        <v>0.9414653523260771</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>775</v>
@@ -7448,19 +7448,19 @@
         <v>574929</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>562495</v>
+        <v>561833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>585674</v>
+        <v>585893</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9055334556438213</v>
+        <v>0.905533455643821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8859503337991735</v>
+        <v>0.8849073528192755</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9224572448645277</v>
+        <v>0.9228024517836431</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>42261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29844</v>
+        <v>30660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56204</v>
+        <v>57884</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07978816130511883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05634520505065957</v>
+        <v>0.05788527395961703</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1061133651343834</v>
+        <v>0.1092849524706953</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -7573,19 +7573,19 @@
         <v>45172</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35334</v>
+        <v>36337</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55711</v>
+        <v>57820</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08276227585110005</v>
+        <v>0.08276227585110006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0647360310409642</v>
+        <v>0.06657548527041686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1020703375245949</v>
+        <v>0.1059340114085986</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -7594,19 +7594,19 @@
         <v>87433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72689</v>
+        <v>71043</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105081</v>
+        <v>105100</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08129754919338267</v>
+        <v>0.08129754919338268</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06758830291013135</v>
+        <v>0.06605798208637968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09770720881304644</v>
+        <v>0.09772446564279276</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>487399</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473456</v>
+        <v>471776</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499816</v>
+        <v>499000</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9202118386948812</v>
+        <v>0.9202118386948813</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8938866348656166</v>
+        <v>0.8907150475293046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9436547949493399</v>
+        <v>0.942114726040383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>645</v>
@@ -7644,19 +7644,19 @@
         <v>500637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>490098</v>
+        <v>487989</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>510475</v>
+        <v>509472</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9172377241488999</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8979296624754052</v>
+        <v>0.8940659885914013</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9352639689590356</v>
+        <v>0.9334245147295833</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>987</v>
@@ -7665,19 +7665,19 @@
         <v>988036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>970388</v>
+        <v>970369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1002780</v>
+        <v>1004426</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9187024508066174</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9022927911869537</v>
+        <v>0.9022755343572073</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9324116970898687</v>
+        <v>0.9339420179136203</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>33716</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25859</v>
+        <v>25894</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42960</v>
+        <v>43659</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1068891870427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08197817020310055</v>
+        <v>0.08209005777812947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1361937721537847</v>
+        <v>0.1384108884771257</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -7790,19 +7790,19 @@
         <v>32956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25262</v>
+        <v>25846</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41453</v>
+        <v>42854</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09247477298708841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07088499814013524</v>
+        <v>0.07252301938834292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1163171672753578</v>
+        <v>0.1202489576170381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>113</v>
@@ -7811,19 +7811,19 @@
         <v>66673</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54952</v>
+        <v>54944</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79313</v>
+        <v>79502</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09924269266147397</v>
+        <v>0.09924269266147399</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08179682521495593</v>
+        <v>0.08178381913269402</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1180583229106082</v>
+        <v>0.1183395961480544</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>281717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>272473</v>
+        <v>271774</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289574</v>
+        <v>289539</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8931108129573</v>
+        <v>0.8931108129573002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8638062278462153</v>
+        <v>0.861589111522875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9180218297968994</v>
+        <v>0.9179099422218706</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>474</v>
@@ -7861,19 +7861,19 @@
         <v>323425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>314928</v>
+        <v>313527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331119</v>
+        <v>330535</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9075252270129115</v>
+        <v>0.9075252270129117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8836828327246423</v>
+        <v>0.8797510423829619</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9291150018598648</v>
+        <v>0.9274769806116573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>782</v>
@@ -7882,19 +7882,19 @@
         <v>605142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>592502</v>
+        <v>592313</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>616863</v>
+        <v>616871</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9007573073385259</v>
+        <v>0.9007573073385261</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8819416770893915</v>
+        <v>0.8816604038519458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9182031747850441</v>
+        <v>0.9182161808673059</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>32833</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24013</v>
+        <v>23307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46275</v>
+        <v>44590</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08799101012230867</v>
+        <v>0.08799101012230866</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06435423120400287</v>
+        <v>0.0624598057606915</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1240131746737682</v>
+        <v>0.1194978473202174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -8007,19 +8007,19 @@
         <v>29195</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22173</v>
+        <v>22045</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37110</v>
+        <v>37235</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06918957084617407</v>
+        <v>0.06918957084617408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05254813192135907</v>
+        <v>0.05224499481973689</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08794538813893486</v>
+        <v>0.08824309473250336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -8028,19 +8028,19 @@
         <v>62029</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50437</v>
+        <v>48969</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75733</v>
+        <v>75524</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07801312609661429</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06343402002641277</v>
+        <v>0.06158827841523488</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0952492856568856</v>
+        <v>0.09498582027883604</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>340312</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>326870</v>
+        <v>328555</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>349132</v>
+        <v>349838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9120089898776914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8759868253262321</v>
+        <v>0.8805021526797829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9356457687959971</v>
+        <v>0.9375401942393086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>535</v>
@@ -8078,19 +8078,19 @@
         <v>392766</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>384851</v>
+        <v>384726</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>399788</v>
+        <v>399916</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9308104291538259</v>
+        <v>0.9308104291538261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.912054611861065</v>
+        <v>0.9117569052674968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9474518680786408</v>
+        <v>0.9477550051802633</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>786</v>
@@ -8099,19 +8099,19 @@
         <v>733078</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>719374</v>
+        <v>719583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>744670</v>
+        <v>746138</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9219868739033855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9047507143431145</v>
+        <v>0.905014179721164</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.936565979973587</v>
+        <v>0.9384117215847652</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>16746</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11359</v>
+        <v>11689</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23279</v>
+        <v>23379</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0814222333210016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05522925983652455</v>
+        <v>0.0568356880712107</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1131908886870019</v>
+        <v>0.1136753084599865</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -8224,19 +8224,19 @@
         <v>28598</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22431</v>
+        <v>22814</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36006</v>
+        <v>35377</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1263015788081839</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09906695676271277</v>
+        <v>0.1007573503282736</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1590229762764523</v>
+        <v>0.1562450029694926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -8245,19 +8245,19 @@
         <v>45343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37239</v>
+        <v>36667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54625</v>
+        <v>54971</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1049399304686304</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08618291615475904</v>
+        <v>0.08485945924146847</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1264204637198133</v>
+        <v>0.1272211980382751</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>188919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182386</v>
+        <v>182286</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194306</v>
+        <v>193976</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9185777666789983</v>
+        <v>0.9185777666789985</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.886809111312998</v>
+        <v>0.8863246915400136</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9447707401634754</v>
+        <v>0.9431643119287894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>417</v>
@@ -8295,19 +8295,19 @@
         <v>197825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190417</v>
+        <v>191046</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203992</v>
+        <v>203609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8736984211918162</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8409770237235474</v>
+        <v>0.8437549970305073</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9009330432372872</v>
+        <v>0.8992426496717263</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>667</v>
@@ -8316,19 +8316,19 @@
         <v>386744</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>377462</v>
+        <v>377116</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394848</v>
+        <v>395420</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8950600695313697</v>
+        <v>0.8950600695313696</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.873579536280187</v>
+        <v>0.8727788019617249</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9138170838452411</v>
+        <v>0.9151405407585317</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>37888</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29456</v>
+        <v>30100</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46843</v>
+        <v>47754</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1399588805960662</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1088126441076394</v>
+        <v>0.1111892130091584</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1730389104687269</v>
+        <v>0.1764058750954497</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -8441,19 +8441,19 @@
         <v>26980</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20832</v>
+        <v>20578</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34543</v>
+        <v>34418</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1025474335269119</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07917959432157778</v>
+        <v>0.07821372970036114</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1312908858975574</v>
+        <v>0.1308161196091769</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -8462,19 +8462,19 @@
         <v>64868</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>54554</v>
+        <v>54434</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75056</v>
+        <v>76635</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1215197497965683</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1021989240291976</v>
+        <v>0.1019740735336719</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1406054790166696</v>
+        <v>0.1435639868862622</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>232819</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>223864</v>
+        <v>222953</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241251</v>
+        <v>240607</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8600411194039338</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8269610895312725</v>
+        <v>0.8235941249045498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8911873558923602</v>
+        <v>0.888810786990841</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>393</v>
@@ -8512,19 +8512,19 @@
         <v>236119</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228556</v>
+        <v>228681</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242267</v>
+        <v>242521</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8974525664730881</v>
+        <v>0.8974525664730882</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8687091141024433</v>
+        <v>0.8691838803908234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9208204056784224</v>
+        <v>0.9217862702996389</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>691</v>
@@ -8533,19 +8533,19 @@
         <v>468938</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>458750</v>
+        <v>457171</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>479252</v>
+        <v>479372</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8784802502034319</v>
+        <v>0.8784802502034317</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8593945209833308</v>
+        <v>0.8564360131137377</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8978010759708026</v>
+        <v>0.8980259264663287</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>68157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52597</v>
+        <v>53980</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84850</v>
+        <v>87394</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09554637054540201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07373267519013818</v>
+        <v>0.0756722802948222</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1189464835430695</v>
+        <v>0.1225127252165564</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -8658,19 +8658,19 @@
         <v>51229</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38860</v>
+        <v>40990</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61482</v>
+        <v>63459</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06647185489734271</v>
+        <v>0.06647185489734268</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0504231458824606</v>
+        <v>0.05318672780654893</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07977624218547207</v>
+        <v>0.08234106205863698</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>143</v>
@@ -8679,19 +8679,19 @@
         <v>119386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>101264</v>
+        <v>99998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>140136</v>
+        <v>138978</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08044740275694989</v>
+        <v>0.08044740275694991</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06823605754966779</v>
+        <v>0.06738290680993998</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09442964613755526</v>
+        <v>0.09364893148742311</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>645187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>628494</v>
+        <v>625950</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>660747</v>
+        <v>659364</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9044536294545981</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8810535164569306</v>
+        <v>0.8774872747834437</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9262673248098617</v>
+        <v>0.9243277197051779</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>883</v>
@@ -8729,19 +8729,19 @@
         <v>719456</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>709203</v>
+        <v>707226</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>731825</v>
+        <v>729695</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9335281451026575</v>
+        <v>0.9335281451026572</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9202237578145279</v>
+        <v>0.9176589379413624</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9495768541175394</v>
+        <v>0.946813272193451</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1410</v>
@@ -8750,19 +8750,19 @@
         <v>1364643</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1343893</v>
+        <v>1345051</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1382765</v>
+        <v>1384031</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9195525972430502</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9055703538624449</v>
+        <v>0.9063510685125771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9317639424503328</v>
+        <v>0.93261709319006</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>61317</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49308</v>
+        <v>49291</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75856</v>
+        <v>77689</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07683086226890642</v>
+        <v>0.07683086226890641</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06178437929362654</v>
+        <v>0.06176307038939401</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09504866988902892</v>
+        <v>0.0973464375109144</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>82</v>
@@ -8875,19 +8875,19 @@
         <v>52948</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42399</v>
+        <v>42110</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65689</v>
+        <v>63994</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06374587160325201</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05104528009976485</v>
+        <v>0.05069732561071825</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07908525052435128</v>
+        <v>0.07704480977501994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>162</v>
@@ -8896,19 +8896,19 @@
         <v>114264</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>98075</v>
+        <v>97968</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>132844</v>
+        <v>131768</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07015766479970265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06021752199393952</v>
+        <v>0.0601516403670098</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08156543077419263</v>
+        <v>0.08090471426097402</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>736755</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>722216</v>
+        <v>720383</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>748764</v>
+        <v>748781</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9231691377310934</v>
+        <v>0.9231691377310935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.904951330110971</v>
+        <v>0.9026535624890856</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9382156207063732</v>
+        <v>0.9382369296106057</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>979</v>
@@ -8946,19 +8946,19 @@
         <v>777661</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>764920</v>
+        <v>766615</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>788210</v>
+        <v>788499</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9362541283967479</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9209147494756487</v>
+        <v>0.92295519022498</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9489547199002353</v>
+        <v>0.9493026743892817</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1661</v>
@@ -8967,19 +8967,19 @@
         <v>1514417</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1495837</v>
+        <v>1496913</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1530606</v>
+        <v>1530713</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9298423352002975</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9184345692258074</v>
+        <v>0.919095285739026</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9397824780060605</v>
+        <v>0.9398483596329904</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>328160</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>293804</v>
+        <v>297306</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>359566</v>
+        <v>362373</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09309850503376976</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08335161893581522</v>
+        <v>0.08434513625476105</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.102008394792297</v>
+        <v>0.1028045011550224</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>543</v>
@@ -9092,19 +9092,19 @@
         <v>291814</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>265265</v>
+        <v>266405</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>315516</v>
+        <v>316623</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07821262707958804</v>
+        <v>0.07821262707958802</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07109691161738906</v>
+        <v>0.07140266166987179</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0845652904753893</v>
+        <v>0.08486219714060246</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>968</v>
@@ -9113,19 +9113,19 @@
         <v>619974</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>582589</v>
+        <v>581662</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>666803</v>
+        <v>663405</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08544409361179556</v>
+        <v>0.08544409361179553</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08029176399350695</v>
+        <v>0.08016400604683412</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09189800136500159</v>
+        <v>0.09142978568033808</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3196711</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3165305</v>
+        <v>3162498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3231067</v>
+        <v>3227565</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9069014949662304</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8979916052077029</v>
+        <v>0.8971954988449768</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9166483810641844</v>
+        <v>0.9156548637452387</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4814</v>
@@ -9163,19 +9163,19 @@
         <v>3439215</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3415513</v>
+        <v>3414406</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3465764</v>
+        <v>3464624</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.921787372920412</v>
+        <v>0.9217873729204118</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9154347095246106</v>
+        <v>0.9151378028593977</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.928903088382611</v>
+        <v>0.9285973383301283</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7759</v>
@@ -9184,19 +9184,19 @@
         <v>6635926</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6589097</v>
+        <v>6592495</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6673311</v>
+        <v>6674238</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9145559063882046</v>
+        <v>0.9145559063882045</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9081019986349984</v>
+        <v>0.908570214319662</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9197082360064932</v>
+        <v>0.9198359939531658</v>
       </c>
     </row>
     <row r="30">
